--- a/Data_Set/Online.xlsx
+++ b/Data_Set/Online.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIS_STUFF\SUBJEK PENGAJARAN\MANB1123_Business Stat for DS\Data Set\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA2F084-5BD0-4F33-9451-CAC41944184E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12120" windowHeight="8700"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem 7-86" sheetId="3" r:id="rId1"/>
-    <sheet name="Problems 14-13 and 14-24" sheetId="1" r:id="rId2"/>
+    <sheet name="Internet_Connection" sheetId="3" r:id="rId1"/>
+    <sheet name="Online Purchase" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="92512"/>
 </workbook>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -132,6 +138,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -153,7 +162,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="Text Box 2"/>
+        <xdr:cNvPr id="2050" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -247,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,9 +295,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,1030 +539,1030 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>4</v>
       </c>
@@ -1526,20 +1575,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1600,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>62638</v>
       </c>
@@ -1562,7 +1611,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>58499</v>
       </c>
@@ -1573,7 +1622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>79902</v>
       </c>
@@ -1584,7 +1633,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>85784</v>
       </c>
@@ -1595,7 +1644,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>99619</v>
       </c>
@@ -1606,7 +1655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>88286</v>
       </c>
@@ -1617,7 +1666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>60330</v>
       </c>
@@ -1628,7 +1677,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10702</v>
       </c>
@@ -1639,7 +1688,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8368</v>
       </c>
@@ -1650,7 +1699,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2787</v>
       </c>
@@ -1661,7 +1710,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>27378</v>
       </c>
@@ -1672,7 +1721,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>97299</v>
       </c>
@@ -1683,7 +1732,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>65737</v>
       </c>
@@ -1694,7 +1743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>78745</v>
       </c>
@@ -1705,7 +1754,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>52943</v>
       </c>
@@ -1716,7 +1765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>18225</v>
       </c>
@@ -1727,7 +1776,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>94205</v>
       </c>
@@ -1738,7 +1787,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>91908</v>
       </c>
@@ -1749,7 +1798,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>38996</v>
       </c>
@@ -1760,7 +1809,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>67406</v>
       </c>
@@ -1771,7 +1820,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>94791</v>
       </c>
@@ -1782,7 +1831,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>76076</v>
       </c>
@@ -1793,7 +1842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>67091</v>
       </c>
@@ -1804,7 +1853,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>91924</v>
       </c>
@@ -1815,7 +1864,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>83629</v>
       </c>
@@ -1826,7 +1875,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>50371</v>
       </c>
@@ -1837,7 +1886,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>78488</v>
       </c>
@@ -1848,7 +1897,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26783</v>
       </c>
@@ -1859,7 +1908,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>7965</v>
       </c>
@@ -1870,7 +1919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>70751</v>
       </c>
@@ -1881,7 +1930,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>48503</v>
       </c>
@@ -1892,7 +1941,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>56695</v>
       </c>
@@ -1903,7 +1952,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1467</v>
       </c>
@@ -1914,7 +1963,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33100</v>
       </c>
@@ -1925,7 +1974,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>75810</v>
       </c>
@@ -1936,7 +1985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>51309</v>
       </c>
@@ -1947,7 +1996,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>99825</v>
       </c>
@@ -1958,7 +2007,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>3797</v>
       </c>
@@ -1969,7 +2018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>95458</v>
       </c>
@@ -1980,7 +2029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>35026</v>
       </c>
@@ -1991,7 +2040,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>18926</v>
       </c>
@@ -2002,7 +2051,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>18917</v>
       </c>
@@ -2013,7 +2062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>9407</v>
       </c>
@@ -2024,7 +2073,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>79396</v>
       </c>
@@ -2035,7 +2084,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>64588</v>
       </c>
@@ -2046,7 +2095,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>72038</v>
       </c>
@@ -2057,7 +2106,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>95227</v>
       </c>
@@ -2068,7 +2117,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>74097</v>
       </c>
@@ -2079,7 +2128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>22661</v>
       </c>
@@ -2090,7 +2139,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>54912</v>
       </c>
@@ -2101,7 +2150,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51421</v>
       </c>
